--- a/dataconfig/InterfaceCase.xlsx
+++ b/dataconfig/InterfaceCase.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView windowWidth="27720" windowHeight="13000"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表 1" sheetId="1" r:id="rId4"/>
+    <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>ID</t>
   </si>
@@ -21,6 +23,9 @@
   </si>
   <si>
     <t>接口地址</t>
+  </si>
+  <si>
+    <t>是否执行</t>
   </si>
   <si>
     <t>请求方式</t>
@@ -53,15 +58,10 @@
     <t>查询接口</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://coding.m.imooc.com/api/courselist</t>
-    </r>
+    <t>https://coding.m.imooc.com/api/courselist</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
   <si>
     <t>GET</t>
@@ -75,16 +75,9 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
       </rPr>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>age1</t>
+      <t>One</t>
     </r>
   </si>
   <si>
@@ -93,6 +86,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
       </rPr>
       <t>‘errorCode’:</t>
     </r>
@@ -101,6 +95,7 @@
         <sz val="11"/>
         <color indexed="14"/>
         <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1000
 </t>
@@ -110,27 +105,7 @@
     <t>Case_02</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t>https://coding.m.imooc.com/api/courselist</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>page2</t>
+    <t>Two</t>
   </si>
   <si>
     <r>
@@ -138,6 +113,7 @@
         <sz val="11"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
       </rPr>
       <t>‘errorCode':</t>
     </r>
@@ -146,59 +122,234 @@
         <sz val="11"/>
         <color indexed="14"/>
         <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">1000
 </t>
     </r>
+  </si>
+  <si>
+    <t>Case_03</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+        <charset val="134"/>
+      </rPr>
+      <t>https://coding.m.imooc.com/api/courselist</t>
+    </r>
+  </si>
+  <si>
+    <t>Three</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="26">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FF000000"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="14"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,23 +359,209 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -337,88 +674,437 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="17">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffce6a4c"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00BDC0BF"/>
+      <rgbColor rgb="00A5A5A5"/>
+      <rgbColor rgb="003F3F3F"/>
+      <rgbColor rgb="00DBDBDB"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00CE6A4C"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -617,8 +1303,6 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
@@ -638,8 +1322,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -651,7 +1334,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -668,8 +1351,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -694,8 +1376,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -720,8 +1401,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -746,8 +1426,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -772,8 +1451,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -798,8 +1476,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -824,8 +1501,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -850,8 +1526,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -876,8 +1551,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -890,9 +1564,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -906,8 +1586,6 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -927,8 +1605,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -953,8 +1630,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -979,8 +1655,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1005,8 +1680,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1031,8 +1705,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1057,8 +1730,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1083,8 +1755,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1109,8 +1780,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1135,8 +1805,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1161,8 +1830,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1175,9 +1843,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1188,8 +1862,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
@@ -1209,8 +1881,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1222,7 +1893,7 @@
             <a:latin typeface="+mn-lt"/>
             <a:ea typeface="+mn-ea"/>
             <a:cs typeface="+mn-cs"/>
-            <a:sym typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue" panose="02000503000000020004"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1239,8 +1910,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1265,8 +1935,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1291,8 +1960,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1317,8 +1985,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1343,8 +2010,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1369,8 +2035,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1395,8 +2060,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1421,8 +2085,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1447,8 +2110,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1461,9 +2123,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
@@ -1472,376 +2140,425 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="24.25" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="24.25" customHeight="1"/>
   <cols>
-    <col min="1" max="11" width="16.3516" style="1" customWidth="1"/>
-    <col min="12" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="2" width="16.3482142857143" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.8214285714286" style="1" customWidth="1"/>
+    <col min="4" max="256" width="16.3482142857143" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="22.55" customHeight="1" spans="1:12">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" ht="44.2" customHeight="1">
-      <c r="A2" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="B2" t="s" s="4">
+    <row r="2" ht="44.2" customHeight="1" spans="1:12">
+      <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s" s="5">
+      <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s" s="6">
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s" s="6">
+      <c r="D2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" t="s" s="5">
+      <c r="E2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s" s="5">
+      <c r="F2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="7"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="15"/>
     </row>
-    <row r="3" ht="56" customHeight="1">
-      <c r="A3" t="s" s="8">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s" s="9">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s" s="11">
+    <row r="3" ht="38.65" customHeight="1" spans="1:12">
+      <c r="A3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s" s="11">
+      <c r="D3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" t="s" s="11">
-        <v>20</v>
-      </c>
-      <c r="J3" t="s" s="10">
+      <c r="E3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="12"/>
+      <c r="K3" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="14"/>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
+    <row r="4" ht="38.65" customHeight="1" spans="1:12">
+      <c r="A4" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="14"/>
     </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
+    <row r="5" ht="20.05" customHeight="1" spans="1:12">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
     </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
+    <row r="6" ht="20.05" customHeight="1" spans="1:12">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
     </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
+    <row r="7" ht="20.05" customHeight="1" spans="1:12">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
     </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
+    <row r="8" ht="20.05" customHeight="1" spans="1:12">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
     </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
+    <row r="9" ht="20.05" customHeight="1" spans="1:12">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
     </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
+    <row r="10" ht="20.05" customHeight="1" spans="1:12">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
     </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
+    <row r="11" ht="20.05" customHeight="1" spans="1:12">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
     </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
+    <row r="12" ht="20.05" customHeight="1" spans="1:12">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
     </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
+    <row r="13" ht="20.05" customHeight="1" spans="1:12">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
     </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
+    <row r="14" ht="20.05" customHeight="1" spans="1:12">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
     </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
+    <row r="15" ht="20.05" customHeight="1" spans="1:12">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
     </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
+    <row r="16" ht="20.05" customHeight="1" spans="1:12">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
     </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
+    <row r="17" ht="20.05" customHeight="1" spans="1:12">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
     </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
+    <row r="18" ht="20.05" customHeight="1" spans="1:12">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
     </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
+    <row r="19" ht="20.05" customHeight="1" spans="1:12">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
     </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
+    <row r="20" ht="20.05" customHeight="1" spans="1:12">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
     </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
+    <row r="21" ht="20.05" customHeight="1" spans="1:12">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
     </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
+    <row r="22" ht="20.05" customHeight="1" spans="1:12">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="14"/>
     </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
+    <row r="23" ht="20.05" customHeight="1" spans="1:12">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" location="" tooltip="" display=""/>
-    <hyperlink ref="C3" r:id="rId2" location="" tooltip="" display=""/>
+    <hyperlink ref="C2" r:id="rId1" display="https://coding.m.imooc.com/api/courselist" tooltip="https://coding.m.imooc.com/api/courselist"/>
+    <hyperlink ref="C3" r:id="rId1" display="https://coding.m.imooc.com/api/courselist" tooltip="https://coding.m.imooc.com/api/courselist"/>
+    <hyperlink ref="C4" r:id="rId1" display="https://coding.m.imooc.com/api/courselist"/>
   </hyperlinks>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277777777777778" footer="0.277777777777778"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/dataconfig/InterfaceCase.xlsx
+++ b/dataconfig/InterfaceCase.xlsx
@@ -81,52 +81,13 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>‘errorCode’:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="14"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">1000
-</t>
-    </r>
+    <t>"errorCode": 1000</t>
   </si>
   <si>
     <t>Case_02</t>
   </si>
   <si>
     <t>Two</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t>‘errorCode':</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="14"/>
-        <rFont val="Helvetica Neue"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">1000
-</t>
-    </r>
   </si>
   <si>
     <t>Case_03</t>
@@ -146,18 +107,21 @@
   <si>
     <t>Three</t>
   </si>
+  <si>
+    <t>"errorCode": 1001</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -186,28 +150,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
@@ -230,7 +172,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -245,6 +201,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
@@ -252,25 +216,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,6 +233,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -302,7 +257,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -316,30 +286,18 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="14"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -376,187 +334,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -678,8 +636,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -687,38 +645,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -734,17 +662,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -772,153 +689,194 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2146,15 +2104,17 @@
   </sheetPr>
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3303571428571" defaultRowHeight="24.25" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="16.3482142857143" style="1" customWidth="1"/>
     <col min="3" max="3" width="21.8214285714286" style="1" customWidth="1"/>
-    <col min="4" max="256" width="16.3482142857143" style="1" customWidth="1"/>
+    <col min="4" max="10" width="16.3482142857143" style="1" customWidth="1"/>
+    <col min="11" max="11" width="22.3214285714286" style="1" customWidth="1"/>
+    <col min="12" max="256" width="16.3482142857143" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="22.55" customHeight="1" spans="1:12">
@@ -2251,19 +2211,19 @@
         <v>21</v>
       </c>
       <c r="K3" s="11" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="L3" s="14"/>
     </row>
     <row r="4" ht="38.65" customHeight="1" spans="1:12">
       <c r="A4" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>15</v>
@@ -2278,10 +2238,10 @@
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>22</v>
       </c>
       <c r="L4" s="14"/>
     </row>
